--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.67</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.82</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,552 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1845,4 +1846,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1854,7 +1855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1865,17 +1866,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1885,14 +1906,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.17</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1901,14 +1944,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.3</v>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1917,14 +1982,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1933,13 +2020,339 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4869</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2251,7 +2252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2262,17 +2263,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2282,14 +2303,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.45</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2298,14 +2341,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.17</v>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2314,14 +2379,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.3</v>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2330,14 +2417,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.64</v>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2346,13 +2455,317 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2648,7 +2649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2659,17 +2660,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2679,14 +2700,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.97</v>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2695,14 +2738,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.45</v>
       </c>
     </row>
     <row r="4">
@@ -2711,14 +2776,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.17</v>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2727,14 +2814,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.3</v>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2743,14 +2852,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.64</v>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2759,13 +2890,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
+++ b/数据整理/stocks/A股/创业板/300825-阿尔特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.97</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.45</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.17</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>3.3</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -600,6 +617,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,402 +1137,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>470009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0956</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8702</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009715</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3980</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011184</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3597</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1305</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013067</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富安达中小盘六个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>74.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1122</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1346,22 +1211,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>88.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3412</t>
+          <t>1.0956</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1374,36 +1239,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6590</t>
+          <t>0.8702</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1412,36 +1277,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5157</t>
+          <t>0.3980</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1450,36 +1315,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>011184</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>东方阿尔法招阳混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4869</t>
+          <t>0.3597</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1488,36 +1353,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3379</t>
+          <t>0.1305</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1526,36 +1391,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009684</t>
+          <t>013067</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
+          <t>富安达中小盘六个月持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>74.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0676</t>
+          <t>0.1122</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1564,36 +1429,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>011185</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>东方阿尔法招阳混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0401</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1602,36 +1467,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011185</t>
+          <t>004456</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合C</t>
+          <t>兴银消费新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1655,12 +1520,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>88.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1676,6 +1541,402 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4869</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2223,7 +2484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2735,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2867,7 +3128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
